--- a/Humanities/History/Migration/3a. Census Data Activity.xlsx
+++ b/Humanities/History/Migration/3a. Census Data Activity.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t xml:space="preserve">1947 Census</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">Top Ten Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
   <si>
     <t xml:space="preserve">All Born Overseas</t>
@@ -165,7 +168,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -187,7 +189,6 @@
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -195,7 +196,6 @@
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -203,13 +203,11 @@
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -218,14 +216,12 @@
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Corbel"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,14 +435,14 @@
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.54"/>
@@ -474,7 +470,7 @@
       <c r="K1" s="2"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -502,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -792,7 +788,7 @@
         <v>109841</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
@@ -821,81 +817,80 @@
         <v>3607625</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="1" t="n">
-        <f aca="false">SUM(H3:H13)</f>
-        <v>99.9601494233212</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="17" t="n">
         <v>6150044</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +921,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -949,7 +944,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
